--- a/docs/StructureDefinition-VARiskEpisodeProfile6.xlsx
+++ b/docs/StructureDefinition-VARiskEpisodeProfile6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="533">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1053,6 +1050,9 @@
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>Observation.component.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/Terminology/VistaDefinedTerms/2-.5292</t>
   </si>
   <si>
     <t>Observation.component.value[x].coding.version</t>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2861,15 +2864,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2906,14 +2911,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2943,7 +2950,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2958,7 +2965,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2977,16 +2984,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3036,7 +3043,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3074,7 +3081,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3097,17 +3104,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3156,7 +3163,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3174,19 +3181,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3194,11 +3201,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3217,17 +3224,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3276,7 +3283,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3294,16 +3301,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3314,7 +3321,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3340,95 +3347,95 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3436,7 +3443,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3459,19 +3466,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3496,14 +3503,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3547,10 +3554,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3558,11 +3565,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3581,17 +3588,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3616,69 +3623,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3701,13 +3708,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3758,7 +3765,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3785,7 +3792,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3796,11 +3803,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3819,16 +3826,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3866,19 +3873,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3905,7 +3912,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3916,7 +3923,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3939,19 +3946,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -4000,7 +4007,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -4024,10 +4031,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -4038,7 +4045,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4061,13 +4068,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4118,7 +4125,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4145,7 +4152,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4156,11 +4163,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4179,16 +4186,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4226,19 +4233,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4265,7 +4272,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4276,7 +4283,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4302,92 +4309,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4398,7 +4405,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4421,16 +4428,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4480,34 +4487,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4518,7 +4525,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4544,90 +4551,90 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4638,7 +4645,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4661,93 +4668,93 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4758,7 +4765,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4781,19 +4788,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4842,34 +4849,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4880,7 +4887,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4903,19 +4910,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4964,34 +4971,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -5002,7 +5009,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5025,19 +5032,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5086,7 +5093,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5104,19 +5111,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5124,11 +5131,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5147,19 +5154,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5208,7 +5215,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5226,19 +5233,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5246,11 +5253,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5269,19 +5276,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5318,47 +5325,47 @@
         <v>46</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5366,13 +5373,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5391,19 +5398,19 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>46</v>
@@ -5452,7 +5459,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5470,19 +5477,19 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5490,7 +5497,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5513,13 +5520,13 @@
         <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5570,7 +5577,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5597,7 +5604,7 @@
         <v>46</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>46</v>
@@ -5608,11 +5615,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5631,16 +5638,16 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5678,19 +5685,19 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5717,7 +5724,7 @@
         <v>46</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>46</v>
@@ -5728,14 +5735,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>44</v>
@@ -5753,16 +5760,16 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5812,34 +5819,34 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH33" t="s" s="2">
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>46</v>
@@ -5850,14 +5857,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>44</v>
@@ -5875,95 +5882,95 @@
         <v>58</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="L34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5974,7 +5981,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5997,16 +6004,16 @@
         <v>58</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6056,7 +6063,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6080,13 +6087,13 @@
         <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
@@ -6094,7 +6101,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6117,17 +6124,17 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6176,7 +6183,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6194,19 +6201,19 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>46</v>
@@ -6214,7 +6221,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6237,19 +6244,19 @@
         <v>58</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6286,17 +6293,17 @@
         <v>46</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6305,39 +6312,39 @@
         <v>57</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AI37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>46</v>
@@ -6359,19 +6366,19 @@
         <v>58</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6420,7 +6427,7 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6429,36 +6436,36 @@
         <v>57</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6481,13 +6488,13 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6538,7 +6545,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6565,7 +6572,7 @@
         <v>46</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6576,11 +6583,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6599,16 +6606,16 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6646,19 +6653,19 @@
         <v>46</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6685,7 +6692,7 @@
         <v>46</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6696,7 +6703,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6719,19 +6726,19 @@
         <v>58</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6780,7 +6787,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6804,10 +6811,10 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6818,7 +6825,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6841,13 +6848,13 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6898,7 +6905,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6925,7 +6932,7 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6936,11 +6943,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6959,16 +6966,16 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7006,19 +7013,19 @@
         <v>46</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -7045,7 +7052,7 @@
         <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -7054,9 +7061,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7070,7 +7077,7 @@
         <v>57</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>46</v>
@@ -7082,23 +7089,23 @@
         <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>46</v>
@@ -7140,34 +7147,34 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7201,16 +7208,16 @@
         <v>58</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7260,34 +7267,34 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -7326,14 +7333,14 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>336</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7382,7 +7389,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7406,10 +7413,10 @@
         <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7443,17 +7450,17 @@
         <v>58</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
@@ -7502,34 +7509,34 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7563,19 +7570,19 @@
         <v>58</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7624,34 +7631,34 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7685,19 +7692,19 @@
         <v>58</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
@@ -7746,34 +7753,34 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7807,7 +7814,7 @@
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>342</v>
@@ -7886,7 +7893,7 @@
         <v>46</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>46</v>
@@ -7929,7 +7936,7 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>352</v>
@@ -8049,7 +8056,7 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>362</v>
@@ -8169,7 +8176,7 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>369</v>
@@ -8204,7 +8211,7 @@
         <v>46</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>372</v>
@@ -8289,7 +8296,7 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>379</v>
@@ -8326,7 +8333,7 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>383</v>
@@ -8773,13 +8780,13 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8830,7 +8837,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8857,7 +8864,7 @@
         <v>46</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8872,7 +8879,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8891,16 +8898,16 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8950,7 +8957,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8977,7 +8984,7 @@
         <v>46</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -9011,16 +9018,16 @@
         <v>58</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9367,7 +9374,7 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>432</v>
@@ -9489,7 +9496,7 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>441</v>
@@ -9526,7 +9533,7 @@
         <v>46</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>445</v>
@@ -9731,7 +9738,7 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>454</v>
@@ -9971,13 +9978,13 @@
         <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10028,7 +10035,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -10055,7 +10062,7 @@
         <v>46</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -10070,7 +10077,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10089,16 +10096,16 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10148,7 +10155,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10175,7 +10182,7 @@
         <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10209,16 +10216,16 @@
         <v>58</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10366,7 +10373,7 @@
         <v>46</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>473</v>
@@ -10691,13 +10698,13 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10748,7 +10755,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10775,7 +10782,7 @@
         <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10790,7 +10797,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10809,16 +10816,16 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10868,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10895,7 +10902,7 @@
         <v>46</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10929,16 +10936,16 @@
         <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11049,7 +11056,7 @@
         <v>58</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>492</v>
@@ -11059,7 +11066,7 @@
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -11084,13 +11091,13 @@
         <v>46</v>
       </c>
       <c r="W77" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>46</v>
@@ -11132,13 +11139,13 @@
         <v>494</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>46</v>
@@ -11169,13 +11176,13 @@
         <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11226,7 +11233,7 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11253,7 +11260,7 @@
         <v>46</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11268,7 +11275,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11287,16 +11294,16 @@
         <v>46</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11334,19 +11341,19 @@
         <v>46</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB79" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11373,7 +11380,7 @@
         <v>46</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11407,19 +11414,19 @@
         <v>58</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>46</v>
@@ -11468,7 +11475,7 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
@@ -11492,10 +11499,10 @@
         <v>46</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
@@ -11529,13 +11536,13 @@
         <v>46</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11586,7 +11593,7 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11613,7 +11620,7 @@
         <v>46</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>46</v>
@@ -11628,7 +11635,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11647,16 +11654,16 @@
         <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11694,19 +11701,19 @@
         <v>46</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11733,7 +11740,7 @@
         <v>46</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11770,16 +11777,16 @@
         <v>70</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11828,34 +11835,34 @@
         <v>46</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
@@ -11889,16 +11896,16 @@
         <v>58</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11948,34 +11955,34 @@
         <v>46</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>46</v>
@@ -12012,14 +12019,14 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>46</v>
@@ -12068,34 +12075,34 @@
         <v>46</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>46</v>
@@ -12129,17 +12136,17 @@
         <v>58</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>46</v>
@@ -12188,34 +12195,34 @@
         <v>46</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>46</v>
@@ -12249,19 +12256,19 @@
         <v>58</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>46</v>
@@ -12310,34 +12317,34 @@
         <v>46</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>46</v>
@@ -12371,19 +12378,19 @@
         <v>58</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>46</v>
@@ -12432,34 +12439,34 @@
         <v>46</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>46</v>
@@ -12493,19 +12500,19 @@
         <v>58</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>508</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>509</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>46</v>
@@ -12542,14 +12549,14 @@
         <v>46</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>507</v>
@@ -12576,16 +12583,16 @@
         <v>510</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -12593,7 +12600,7 @@
         <v>507</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>46</v>
@@ -12615,19 +12622,19 @@
         <v>58</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>508</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>509</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>46</v>
@@ -12700,16 +12707,16 @@
         <v>510</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -12737,13 +12744,13 @@
         <v>46</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12794,7 +12801,7 @@
         <v>46</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>44</v>
@@ -12821,7 +12828,7 @@
         <v>46</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>46</v>
@@ -12836,7 +12843,7 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12855,16 +12862,16 @@
         <v>46</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12902,19 +12909,19 @@
         <v>46</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB92" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>44</v>
@@ -12941,7 +12948,7 @@
         <v>46</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>46</v>
@@ -12975,19 +12982,19 @@
         <v>58</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>46</v>
@@ -13036,7 +13043,7 @@
         <v>46</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>44</v>
@@ -13060,10 +13067,10 @@
         <v>46</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>46</v>
@@ -13097,13 +13104,13 @@
         <v>46</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13154,7 +13161,7 @@
         <v>46</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>44</v>
@@ -13181,7 +13188,7 @@
         <v>46</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>46</v>
@@ -13196,7 +13203,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13215,16 +13222,16 @@
         <v>46</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13262,19 +13269,19 @@
         <v>46</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB95" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>44</v>
@@ -13301,7 +13308,7 @@
         <v>46</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>46</v>
@@ -13310,7 +13317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>516</v>
       </c>
@@ -13326,7 +13333,7 @@
         <v>57</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>46</v>
@@ -13338,23 +13345,23 @@
         <v>70</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>46</v>
+        <v>517</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>46</v>
@@ -13396,34 +13403,34 @@
         <v>46</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>46</v>
@@ -13434,7 +13441,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13457,16 +13464,16 @@
         <v>58</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13516,34 +13523,34 @@
         <v>46</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>46</v>
@@ -13554,14 +13561,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E98" t="s" s="2">
         <v>44</v>
@@ -13582,14 +13589,14 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>46</v>
@@ -13638,34 +13645,34 @@
         <v>46</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>46</v>
@@ -13676,7 +13683,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13699,17 +13706,17 @@
         <v>58</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>46</v>
@@ -13758,34 +13765,34 @@
         <v>46</v>
       </c>
       <c r="AE99" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF99" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>46</v>
@@ -13796,7 +13803,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13819,19 +13826,19 @@
         <v>58</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>46</v>
@@ -13880,34 +13887,34 @@
         <v>46</v>
       </c>
       <c r="AE100" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>46</v>
@@ -13918,7 +13925,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13941,19 +13948,19 @@
         <v>58</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>46</v>
@@ -14002,34 +14009,34 @@
         <v>46</v>
       </c>
       <c r="AE101" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>46</v>
@@ -14040,7 +14047,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14063,16 +14070,16 @@
         <v>46</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>343</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>345</v>
@@ -14124,7 +14131,7 @@
         <v>46</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>44</v>
@@ -14162,7 +14169,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14185,7 +14192,7 @@
         <v>46</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>352</v>
@@ -14194,7 +14201,7 @@
         <v>353</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>354</v>
@@ -14246,7 +14253,7 @@
         <v>46</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>44</v>
@@ -14284,7 +14291,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14310,7 +14317,7 @@
         <v>46</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>408</v>
@@ -14368,7 +14375,7 @@
         <v>46</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>44</v>
